--- a/optionlist_2021.xlsx
+++ b/optionlist_2021.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wilson\Work\NF_Project\NF_2021\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30490108-1917-4816-92E6-82C505D6C632}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077E7AFC-4DA7-4AF3-8A3D-7D056DB1CCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="990" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nf_option_list" sheetId="1" r:id="rId1"/>
     <sheet name="nf_question_list" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nf_option_list!$A$1:$D$2892</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nf_option_list!$A$1:$D$2912</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nf_question_list!$A$1:$F$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5885" uniqueCount="2704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5925" uniqueCount="2715">
   <si>
     <t>电视机遥控器</t>
   </si>
@@ -8142,6 +8142,39 @@
   </si>
   <si>
     <t>新奥</t>
+  </si>
+  <si>
+    <t>足浴盆遥控器</t>
+  </si>
+  <si>
+    <t>按摩椅遥控器</t>
+  </si>
+  <si>
+    <t>行李箱(指纹称重)</t>
+  </si>
+  <si>
+    <t>物品追踪器(如Apple AirTag)</t>
+  </si>
+  <si>
+    <t>智能心脏起搏器</t>
+  </si>
+  <si>
+    <t>智能心电监测/监护仪</t>
+  </si>
+  <si>
+    <t>智能治疗仪</t>
+  </si>
+  <si>
+    <t>智能血糖仪</t>
+  </si>
+  <si>
+    <t>智能血氧仪</t>
+  </si>
+  <si>
+    <t>智能电子血压计</t>
+  </si>
+  <si>
+    <t>智能胎心仪</t>
   </si>
 </sst>
 </file>
@@ -8988,10 +9021,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D2892"/>
+  <dimension ref="A1:D2912"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2900" sqref="B2900"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44580,8 +44613,227 @@
         <v>2037</v>
       </c>
     </row>
+    <row r="2893" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2893" s="5">
+        <v>383</v>
+      </c>
+      <c r="B2893" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C2893" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2894" s="5">
+        <v>384</v>
+      </c>
+      <c r="B2894" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C2894" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2895" s="5">
+        <v>391</v>
+      </c>
+      <c r="B2895" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C2895" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2896" s="5">
+        <v>392</v>
+      </c>
+      <c r="B2896" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C2896" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2897" s="5">
+        <v>386</v>
+      </c>
+      <c r="B2897" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C2897" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2898" s="5">
+        <v>389</v>
+      </c>
+      <c r="B2898" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C2898" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2899" s="5">
+        <v>390</v>
+      </c>
+      <c r="B2899" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C2899" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2900" s="5">
+        <v>393</v>
+      </c>
+      <c r="B2900" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C2900" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2901" s="5">
+        <v>394</v>
+      </c>
+      <c r="B2901" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C2901" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2902" s="5">
+        <v>395</v>
+      </c>
+      <c r="B2902" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C2902" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2903" s="5">
+        <v>396</v>
+      </c>
+      <c r="B2903" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C2903" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2904" s="5">
+        <v>397</v>
+      </c>
+      <c r="B2904" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C2904" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2905" s="5">
+        <v>398</v>
+      </c>
+      <c r="B2905" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C2905" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2906" s="5">
+        <v>399</v>
+      </c>
+      <c r="B2906" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C2906" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2907" s="5">
+        <v>400</v>
+      </c>
+      <c r="B2907" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C2907" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2908" s="5">
+        <v>401</v>
+      </c>
+      <c r="B2908" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C2908" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2909" s="5">
+        <v>402</v>
+      </c>
+      <c r="B2909" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C2909" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2910" s="5">
+        <v>403</v>
+      </c>
+      <c r="B2910" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C2910" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2911" s="5">
+        <v>404</v>
+      </c>
+      <c r="B2911" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C2911" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2912" s="5">
+        <v>405</v>
+      </c>
+      <c r="B2912" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C2912" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D2892" xr:uid="{E3AAA731-8056-4FD7-B081-CE5C7BEAC09A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -44592,7 +44844,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
